--- a/CDA - 20228/BACK/BDD/mcd/evaluation/1/Dictionnaire de données.xlsx
+++ b/CDA - 20228/BACK/BDD/mcd/evaluation/1/Dictionnaire de données.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80010-02-01\Desktop\Projet-Jarditou\CDA - 20228\BACK\BDD\mcd\evaluation\1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Code</t>
   </si>
@@ -160,13 +165,16 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>SmallInt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +308,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -346,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,9 +394,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,6 +429,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,19 +605,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -613,76 +631,30 @@
         <v>3</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="45.75" thickBot="1">
+    </row>
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="60.75" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -690,162 +662,220 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="60.75" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="75.75" thickBot="1">
+    </row>
+    <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="60.75" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="6" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="45.75" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -854,24 +884,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
